--- a/WHO-DATA-SETS/ExcelDataSets/20200131-sitrep-11-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200131-sitrep-11-ncov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795FB65-E0BE-485B-A219-B2873D140501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C2231-B3FA-4B28-B317-115B6A0779A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -381,10 +381,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -490,13 +486,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -530,14 +523,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -891,265 +878,245 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="106.5" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="24.2" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.2" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C2" s="7">
         <v>9720</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="33" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.6" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="24" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="24" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="24" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="24.6" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="11">
-        <v>14</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="11">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11">
-        <v>5</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="23.85" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="23.85" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C22" s="10">
         <v>9826</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="D22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A25:D25"/>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200131-sitrep-11-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200131-sitrep-11-ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C2231-B3FA-4B28-B317-115B6A0779A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29F3B2-CC75-4988-BC9B-7D7955E239C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -490,40 +490,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -867,7 +867,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -879,229 +879,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="24.2" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>9720</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="10">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="10">
         <v>11</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="10">
         <v>5</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10">
         <v>9</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="10">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="10">
         <v>6</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="24" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="10">
         <v>5</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="23.85" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1110,7 +1110,7 @@
       <c r="C22" s="10">
         <v>9826</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
